--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,15 +145,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1230124</x:t>
@@ -287,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -587,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1092,7 +1083,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.8698584143</x:v>
+        <x:v>45912.1125604167</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.1125604167</x:v>
+        <x:v>45907.717471875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1141,38 +1132,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.717471875</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
-  </x:si>
-  <x:si>
     <x:t>2240005</x:t>
   </x:si>
   <x:si>
@@ -145,15 +136,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور منتصر مجدى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230335</x:t>
@@ -278,7 +260,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -578,7 +560,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -669,7 +651,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4163689005</x:v>
+        <x:v>45907.4206642361</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -701,7 +683,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4206642361</x:v>
+        <x:v>45907.6650103357</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -733,7 +715,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6650103357</x:v>
+        <x:v>45912.1128035532</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -765,7 +747,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.1128035532</x:v>
+        <x:v>45917.8701990394</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -797,7 +779,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.8701990394</x:v>
+        <x:v>45907.415416088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -829,7 +811,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.415416088</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -861,7 +843,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45907.4145090625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -893,7 +875,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145090625</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -925,7 +907,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -957,7 +939,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -985,11 +967,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1012,14 +992,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1051,7 +1033,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45907.717471875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1068,70 +1050,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45912.1125604167</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45907.717471875</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Shahd Yehya Aboelsoud Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230079</x:t>
@@ -260,7 +269,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -560,7 +569,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -907,7 +916,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -939,7 +948,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -967,9 +976,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -992,16 +1003,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.717471875</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1050,6 +1059,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45907.717471875</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -916,7 +916,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.9547305556</x:v>
+        <x:v>45929.4830858449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Julia Ehab thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حنين الظافر مصطفى أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230031</x:t>
@@ -269,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -569,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -788,7 +797,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.415416088</x:v>
+        <x:v>45931.4526235764</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -820,7 +829,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45907.415416088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -852,7 +861,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4145090625</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -884,7 +893,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4145090625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -916,7 +925,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45929.4830858449</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -948,7 +957,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45929.4830858449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -980,7 +989,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1008,9 +1017,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1033,16 +1044,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.717471875</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1091,6 +1100,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45907.717471875</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Shahd Yehya Aboelsoud Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230079</x:t>
@@ -278,7 +269,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -578,7 +569,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -957,7 +948,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45929.4830858449</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -989,7 +980,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1017,11 +1008,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45912.1124354514</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1044,14 +1033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45912.1124354514</x:v>
+        <x:v>45914.0350702546</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.0350702546</x:v>
+        <x:v>45907.717471875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1100,38 +1091,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45907.717471875</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35276.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35276.xlsx
@@ -84,7 +84,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230040</x:t>
@@ -129,7 +129,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230323</x:t>
@@ -578,7 +578,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
